--- a/kito/public/addSurvey.xlsx
+++ b/kito/public/addSurvey.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mag\project mitra\MitraBPS\ProjekMitraBPS\kito\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,17 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>kecamatan</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>london enggress</t>
   </si>
   <si>
-    <t>lokasi</t>
-  </si>
-  <si>
     <t>kro</t>
   </si>
   <si>
@@ -47,16 +41,28 @@
     <t>plan valencia</t>
   </si>
   <si>
-    <t>survei</t>
-  </si>
-  <si>
-    <t>plan alcatraz</t>
-  </si>
-  <si>
     <t>01-12-2029</t>
   </si>
   <si>
-    <t>01-11-2028</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>kode_desa</t>
+  </si>
+  <si>
+    <t>kode_kecamatan</t>
+  </si>
+  <si>
+    <t>kode_kabupaten</t>
+  </si>
+  <si>
+    <t>kode_provinsi</t>
+  </si>
+  <si>
+    <t>nama_survei</t>
+  </si>
+  <si>
+    <t>lokasi_survei</t>
   </si>
 </sst>
 </file>
@@ -375,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -386,63 +392,62 @@
     <col min="4" max="5" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+      <c r="I2">
         <v>1</v>
       </c>
     </row>

--- a/kito/public/addSurvey.xlsx
+++ b/kito/public/addSurvey.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>london enggress</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>kro</t>
   </si>
@@ -38,15 +35,9 @@
     <t>tim</t>
   </si>
   <si>
-    <t>plan valencia</t>
-  </si>
-  <si>
     <t>01-12-2029</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>kode_desa</t>
   </si>
   <si>
@@ -63,6 +54,9 @@
   </si>
   <si>
     <t>lokasi_survei</t>
+  </si>
+  <si>
+    <t>contoh</t>
   </si>
 </sst>
 </file>
@@ -384,7 +378,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -394,40 +388,40 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
       <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
       </c>
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -435,20 +429,14 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/kito/public/addSurvey.xlsx
+++ b/kito/public/addSurvey.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mag\project mitra\MitraBPS\ProjekMitraBPS\kito\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19150" windowHeight="2230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,12 +44,6 @@
     <t>kode_kecamatan</t>
   </si>
   <si>
-    <t>kode_kabupaten</t>
-  </si>
-  <si>
-    <t>kode_provinsi</t>
-  </si>
-  <si>
     <t>nama_survei</t>
   </si>
   <si>
@@ -57,6 +51,12 @@
   </si>
   <si>
     <t>contoh</t>
+  </si>
+  <si>
+    <t>KC001</t>
+  </si>
+  <si>
+    <t>D001</t>
   </si>
 </sst>
 </file>
@@ -94,7 +94,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,68 +375,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="5" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
-        <v>10</v>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/kito/public/addSurvey.xlsx
+++ b/kito/public/addSurvey.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RIZKY\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71361830-2CAC-4E98-BB72-B988D0C3CA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19150" windowHeight="2230"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>kro</t>
   </si>
@@ -57,12 +58,15 @@
   </si>
   <si>
     <t>D001</t>
+  </si>
+  <si>
+    <t>jadwal_berakhir</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,7 +98,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,63 +378,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="5" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="4" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="1">
+        <v>47455</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/kito/public/addSurvey.xlsx
+++ b/kito/public/addSurvey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RIZKY\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71361830-2CAC-4E98-BB72-B988D0C3CA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E94A92E-0C63-4869-9306-183B8E525B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,13 +54,13 @@
     <t>contoh</t>
   </si>
   <si>
-    <t>KC001</t>
-  </si>
-  <si>
-    <t>D001</t>
-  </si>
-  <si>
     <t>jadwal_berakhir</t>
+  </si>
+  <si>
+    <t>KC1</t>
+  </si>
+  <si>
+    <t>D01</t>
   </si>
 </sst>
 </file>
@@ -382,7 +382,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -411,7 +411,7 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -425,10 +425,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/kito/public/addSurvey.xlsx
+++ b/kito/public/addSurvey.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RIZKY\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mag\project mitra\MitraBPS\ProjekMitraBPS\kito\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E94A92E-0C63-4869-9306-183B8E525B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>kro</t>
   </si>
@@ -39,34 +38,19 @@
     <t>01-12-2029</t>
   </si>
   <si>
-    <t>kode_desa</t>
-  </si>
-  <si>
-    <t>kode_kecamatan</t>
-  </si>
-  <si>
     <t>nama_survei</t>
   </si>
   <si>
-    <t>lokasi_survei</t>
-  </si>
-  <si>
     <t>contoh</t>
   </si>
   <si>
     <t>jadwal_berakhir</t>
-  </si>
-  <si>
-    <t>KC1</t>
-  </si>
-  <si>
-    <t>D01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -378,69 +362,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>47455</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>47455</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/kito/public/addSurvey.xlsx
+++ b/kito/public/addSurvey.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mag\project mitra\MitraBPS\ProjekMitraBPS\kito\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rizky\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D87DDC-A35D-4316-9EA4-32BE0CE6F366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12460"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>kro</t>
   </si>
@@ -45,12 +57,15 @@
   </si>
   <si>
     <t>jadwal_berakhir</t>
+  </si>
+  <si>
+    <t>02-12-2029</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -82,7 +97,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,20 +377,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -392,7 +407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -402,8 +417,8 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1">
-        <v>47455</v>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>

--- a/kito/public/addSurvey.xlsx
+++ b/kito/public/addSurvey.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mag\project mitra\MitraBPS\ProjekMitraBPS\kito\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>kro</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>tim</t>
-  </si>
-  <si>
-    <t>01-12-2029</t>
   </si>
   <si>
     <t>nama_survei</t>
@@ -366,18 +363,18 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -386,7 +383,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -394,19 +391,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>47453</v>
       </c>
       <c r="D2" s="1">
         <v>47455</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/kito/public/addSurvey.xlsx
+++ b/kito/public/addSurvey.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mag\project mitra\MitraBPS\ProjekMitraBPS\kito\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>kro</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>jadwal_berakhir</t>
+  </si>
+  <si>
+    <t>15-02-2024</t>
+  </si>
+  <si>
+    <t>16-03-2025</t>
   </si>
 </sst>
 </file>
@@ -79,7 +85,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,7 +369,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -396,11 +402,11 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>47453</v>
-      </c>
-      <c r="D2" s="1">
-        <v>47455</v>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
